--- a/logs/2024/Orbital - Samantha Harvey.xlsx
+++ b/logs/2024/Orbital - Samantha Harvey.xlsx
@@ -430,7 +430,7 @@
         <v>45652</v>
       </c>
       <c r="B1" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         <v>45653</v>
       </c>
       <c r="B2" t="n">
-        <v>108</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>45654</v>
       </c>
       <c r="B3" t="n">
-        <v>164</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
